--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41173.14181670722</v>
+        <v>59699.38967739208</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6088006.529022478</v>
+        <v>10476461.76884806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22558729.53286666</v>
+        <v>21992138.85861845</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4110672.997440236</v>
+        <v>4098490.269183655</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K11" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L11" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M11" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N11" t="n">
-        <v>222.2917199246831</v>
+        <v>28.8038202865167</v>
       </c>
       <c r="O11" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098621</v>
       </c>
       <c r="P11" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880922</v>
       </c>
       <c r="Q11" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773974</v>
       </c>
       <c r="K12" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L12" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M12" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716808</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8848,22 +8850,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L13" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M13" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N13" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O13" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P13" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K14" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L14" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M14" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N14" t="n">
-        <v>222.2917199246831</v>
+        <v>28.8038202865167</v>
       </c>
       <c r="O14" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098621</v>
       </c>
       <c r="P14" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880922</v>
       </c>
       <c r="Q14" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,28 +9005,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773974</v>
       </c>
       <c r="K15" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L15" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M15" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716808</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9085,22 +9087,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L16" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M16" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N16" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O16" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P16" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K17" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L17" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M17" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N17" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O17" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P17" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q17" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,28 +9242,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K18" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L18" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M18" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9322,22 +9324,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L19" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M19" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N19" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O19" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P19" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K20" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L20" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M20" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N20" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O20" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P20" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q20" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,28 +9479,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K21" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L21" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M21" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9559,22 +9561,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L22" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M22" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N22" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O22" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P22" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K23" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L23" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M23" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N23" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O23" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P23" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q23" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,28 +9716,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K24" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L24" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M24" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9796,22 +9798,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L25" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M25" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N25" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O25" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P25" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K26" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L26" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M26" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N26" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O26" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P26" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q26" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9951,28 +9953,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K27" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L27" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M27" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10033,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L28" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M28" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N28" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O28" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P28" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K29" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L29" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M29" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N29" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O29" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P29" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q29" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10188,28 +10190,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K30" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L30" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M30" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10270,22 +10272,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L31" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M31" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N31" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O31" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P31" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K32" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L32" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M32" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N32" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O32" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P32" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q32" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10425,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K33" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L33" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M33" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10507,22 +10509,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L34" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M34" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N34" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O34" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P34" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K35" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L35" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M35" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N35" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O35" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P35" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q35" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10662,28 +10664,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K36" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L36" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M36" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10744,22 +10746,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L37" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M37" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N37" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O37" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P37" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K38" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L38" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M38" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N38" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O38" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P38" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q38" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K39" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L39" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M39" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10981,22 +10983,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L40" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M40" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N40" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O40" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P40" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>175.8604797789567</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K41" t="n">
-        <v>213.5995192441138</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L41" t="n">
-        <v>228.646447129796</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M41" t="n">
-        <v>223.2236304029182</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N41" t="n">
-        <v>222.2917199246831</v>
+        <v>28.80382028651667</v>
       </c>
       <c r="O41" t="n">
-        <v>223.0369795084357</v>
+        <v>40.33184255098618</v>
       </c>
       <c r="P41" t="n">
-        <v>224.3351602892557</v>
+        <v>68.40055292880919</v>
       </c>
       <c r="Q41" t="n">
-        <v>215.9092192069638</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11136,28 +11138,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>123.2740250551552</v>
+        <v>68.45858123773975</v>
       </c>
       <c r="K42" t="n">
-        <v>133.7242829031451</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L42" t="n">
-        <v>134.1881164937918</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M42" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>129.8314131257895</v>
+        <v>19.04014099716809</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.9517063533982</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11218,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>111.0135169984386</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L43" t="n">
-        <v>130.9945330015096</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M43" t="n">
-        <v>134.9064531715621</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N43" t="n">
-        <v>123.9602067627609</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O43" t="n">
-        <v>134.502629329381</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P43" t="n">
-        <v>133.863388828537</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789567</v>
+        <v>70.12451876312399</v>
       </c>
       <c r="K44" t="n">
-        <v>213.5995192441138</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L44" t="n">
-        <v>228.646447129796</v>
+        <v>32.04941132065568</v>
       </c>
       <c r="M44" t="n">
-        <v>223.2236304029182</v>
+        <v>4.471547871848941</v>
       </c>
       <c r="N44" t="n">
-        <v>222.2917199246831</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>223.0369795084357</v>
+        <v>13.13321183460977</v>
       </c>
       <c r="P44" t="n">
-        <v>224.3351602892557</v>
+        <v>45.18715087494314</v>
       </c>
       <c r="Q44" t="n">
-        <v>215.9092192069638</v>
+        <v>81.37652493873003</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,28 +11375,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>123.2740250551552</v>
+        <v>60.29841103797475</v>
       </c>
       <c r="K45" t="n">
-        <v>133.7242829031451</v>
+        <v>26.08892793956251</v>
       </c>
       <c r="L45" t="n">
-        <v>134.1881164937918</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>137.5276204128246</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>126.977235184952</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>138.0424948128376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>129.8314131257895</v>
+        <v>2.547058496013619</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.9517063533982</v>
+        <v>50.86548610568364</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11455,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>111.0135169984386</v>
+        <v>60.45788912455299</v>
       </c>
       <c r="L46" t="n">
-        <v>130.9945330015096</v>
+        <v>47.91260360151773</v>
       </c>
       <c r="M46" t="n">
-        <v>134.9064531715621</v>
+        <v>47.308207565346</v>
       </c>
       <c r="N46" t="n">
-        <v>123.9602067627609</v>
+        <v>38.44485164535457</v>
       </c>
       <c r="O46" t="n">
-        <v>134.502629329381</v>
+        <v>55.51535781714706</v>
       </c>
       <c r="P46" t="n">
-        <v>133.863388828537</v>
+        <v>66.27613257700894</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23270,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I11" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S11" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,13 +23351,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I12" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S12" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I13" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J13" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K13" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765228</v>
       </c>
       <c r="R13" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S13" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T13" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H14" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I14" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S14" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T14" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U14" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,13 +23588,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I15" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S15" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T15" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,19 +23667,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H16" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I16" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J16" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K16" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765228</v>
       </c>
       <c r="R16" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S16" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T16" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,13 +23746,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I17" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S17" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T17" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U17" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H18" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I18" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S18" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T18" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,19 +23904,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H19" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I19" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J19" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K19" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R19" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S19" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,13 +23983,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H20" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I20" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S20" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T20" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H21" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I21" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S21" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,19 +24141,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H22" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I22" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J22" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K22" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R22" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S22" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T22" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,13 +24220,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H23" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I23" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S23" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T23" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U23" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,13 +24299,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I24" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S24" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T24" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,19 +24378,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H25" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I25" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J25" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K25" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R25" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S25" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T25" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,13 +24457,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H26" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I26" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S26" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T26" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U26" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H27" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I27" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S27" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T27" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,19 +24615,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H28" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I28" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J28" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K28" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R28" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S28" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T28" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,13 +24694,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H29" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I29" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S29" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T29" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H30" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I30" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S30" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,19 +24852,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H31" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I31" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J31" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K31" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R31" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S31" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T31" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,13 +24931,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H32" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I32" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S32" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T32" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H33" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I33" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S33" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,19 +25089,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H34" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I34" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J34" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K34" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R34" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S34" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T34" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,13 +25168,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H35" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I35" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S35" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T35" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,13 +25247,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H36" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I36" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S36" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T36" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,19 +25326,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H37" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I37" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J37" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K37" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R37" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S37" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T37" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,13 +25405,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H38" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I38" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S38" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T38" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I39" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S39" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,19 +25563,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H40" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I40" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J40" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K40" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R40" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S40" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T40" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,13 +25642,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>414.8469976648709</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H41" t="n">
-        <v>338.0643520315285</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I41" t="n">
-        <v>204.9248421118658</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>141.3628824684264</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S41" t="n">
-        <v>205.6879443719866</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T41" t="n">
-        <v>222.9311139191226</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4771421574276</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0190540982959</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H42" t="n">
-        <v>110.4223762806608</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I42" t="n">
-        <v>86.36044943933398</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.43693657204597</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S42" t="n">
-        <v>168.8844160456835</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T42" t="n">
-        <v>198.3657798815145</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,19 +25800,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.8861045898245</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H43" t="n">
-        <v>161.6030930562142</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I43" t="n">
-        <v>153.6537631823318</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J43" t="n">
-        <v>88.59250206973378</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K43" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.46893389083417</v>
+        <v>38.73842027765227</v>
       </c>
       <c r="R43" t="n">
-        <v>173.2344790603067</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S43" t="n">
-        <v>222.2966844130269</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T43" t="n">
-        <v>228.3175783557508</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25877,13 +25879,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>414.8469976648709</v>
+        <v>413.6011947986627</v>
       </c>
       <c r="H44" t="n">
-        <v>338.0643520315285</v>
+        <v>325.3057734279745</v>
       </c>
       <c r="I44" t="n">
-        <v>204.9248421118658</v>
+        <v>156.8960271123767</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>141.3628824684264</v>
+        <v>63.10621817397967</v>
       </c>
       <c r="S44" t="n">
-        <v>205.6879443719866</v>
+        <v>177.2992115582687</v>
       </c>
       <c r="T44" t="n">
-        <v>222.9311139191226</v>
+        <v>217.4776118722965</v>
       </c>
       <c r="U44" t="n">
-        <v>251.4771421574276</v>
+        <v>251.377477928131</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0190540982959</v>
+        <v>135.3524908005884</v>
       </c>
       <c r="H45" t="n">
-        <v>110.4223762806608</v>
+        <v>103.9847781159594</v>
       </c>
       <c r="I45" t="n">
-        <v>86.36044943933398</v>
+        <v>63.41079204019437</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>94.43693657204597</v>
+        <v>53.05154164947012</v>
       </c>
       <c r="S45" t="n">
-        <v>168.8844160456835</v>
+        <v>156.5032951430903</v>
       </c>
       <c r="T45" t="n">
-        <v>198.3657798815145</v>
+        <v>195.6790620280356</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6130507905924</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,19 +26037,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8861045898245</v>
+        <v>167.327280312339</v>
       </c>
       <c r="H46" t="n">
-        <v>161.6030930562142</v>
+        <v>156.634637207297</v>
       </c>
       <c r="I46" t="n">
-        <v>153.6537631823318</v>
+        <v>136.8483930921292</v>
       </c>
       <c r="J46" t="n">
-        <v>88.59250206973378</v>
+        <v>49.08362565150361</v>
       </c>
       <c r="K46" t="n">
-        <v>14.36959272852937</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>79.46893389083417</v>
+        <v>32.67502098247385</v>
       </c>
       <c r="R46" t="n">
-        <v>173.2344790603067</v>
+        <v>148.1077074562735</v>
       </c>
       <c r="S46" t="n">
-        <v>222.2966844130269</v>
+        <v>212.5579013226647</v>
       </c>
       <c r="T46" t="n">
-        <v>228.3175783557508</v>
+        <v>225.929874624676</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0215990119132</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>355520.428555601</v>
+        <v>354096.469791294</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355520.428555601</v>
+        <v>354396.053583339</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58354.60936318346</v>
+        <v>58354.60936318347</v>
       </c>
       <c r="C2" t="n">
         <v>58354.60936318347</v>
@@ -26320,40 +26322,40 @@
         <v>58354.60936318347</v>
       </c>
       <c r="E2" t="n">
-        <v>58407.79031931119</v>
+        <v>63539.0586367592</v>
       </c>
       <c r="F2" t="n">
-        <v>58407.79031931119</v>
+        <v>63539.0586367592</v>
       </c>
       <c r="G2" t="n">
-        <v>58407.79031931118</v>
+        <v>63539.05863675919</v>
       </c>
       <c r="H2" t="n">
-        <v>58407.79031931117</v>
+        <v>63539.0586367592</v>
       </c>
       <c r="I2" t="n">
-        <v>58407.79031931119</v>
+        <v>63539.05863675919</v>
       </c>
       <c r="J2" t="n">
-        <v>58407.79031931117</v>
+        <v>63539.0586367592</v>
       </c>
       <c r="K2" t="n">
-        <v>58407.79031931116</v>
+        <v>63539.05863675921</v>
       </c>
       <c r="L2" t="n">
-        <v>58407.79031931118</v>
+        <v>63539.0586367592</v>
       </c>
       <c r="M2" t="n">
-        <v>58407.79031931117</v>
+        <v>63539.0586367592</v>
       </c>
       <c r="N2" t="n">
-        <v>58407.79031931117</v>
+        <v>63539.0586367592</v>
       </c>
       <c r="O2" t="n">
-        <v>58407.79031931117</v>
+        <v>63539.0586367592</v>
       </c>
       <c r="P2" t="n">
-        <v>58407.79031931118</v>
+        <v>64288.81299467909</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1552.355414955019</v>
+        <v>218261.0761326449</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>26726.17913435546</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="C4" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="D4" t="n">
-        <v>42439.71590049706</v>
+        <v>42439.71590049705</v>
       </c>
       <c r="E4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.0643759491</v>
       </c>
       <c r="F4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.0643759491</v>
       </c>
       <c r="G4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="H4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="I4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="J4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="K4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="L4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="M4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="N4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="O4" t="n">
-        <v>42242.2804792955</v>
+        <v>13296.06437594909</v>
       </c>
       <c r="P4" t="n">
-        <v>42242.2804792955</v>
+        <v>9574.238430060112</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="F5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="G5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="H5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="I5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="J5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="K5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="L5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="M5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="N5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="O5" t="n">
-        <v>42.12250644573074</v>
+        <v>5922.421822785898</v>
       </c>
       <c r="P5" t="n">
-        <v>42.12250644573074</v>
+        <v>6797.799999175896</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17712.7065373136</v>
+        <v>-17712.70653731358</v>
       </c>
       <c r="C6" t="n">
-        <v>-17712.70653731359</v>
+        <v>-17712.70653731358</v>
       </c>
       <c r="D6" t="n">
-        <v>-17712.70653731359</v>
+        <v>-17712.70653731358</v>
       </c>
       <c r="E6" t="n">
-        <v>14571.03191861494</v>
+        <v>-173940.5036946207</v>
       </c>
       <c r="F6" t="n">
-        <v>16123.38733356996</v>
+        <v>44320.57243802422</v>
       </c>
       <c r="G6" t="n">
-        <v>16123.38733356995</v>
+        <v>44320.5724380242</v>
       </c>
       <c r="H6" t="n">
-        <v>16123.38733356994</v>
+        <v>44320.57243802422</v>
       </c>
       <c r="I6" t="n">
-        <v>16123.38733356996</v>
+        <v>44320.5724380242</v>
       </c>
       <c r="J6" t="n">
-        <v>16123.38733356994</v>
+        <v>44320.5724380242</v>
       </c>
       <c r="K6" t="n">
-        <v>16123.38733356993</v>
+        <v>44320.57243802422</v>
       </c>
       <c r="L6" t="n">
-        <v>16123.38733356995</v>
+        <v>44320.5724380242</v>
       </c>
       <c r="M6" t="n">
-        <v>16123.38733356994</v>
+        <v>44320.5724380242</v>
       </c>
       <c r="N6" t="n">
-        <v>16123.38733356994</v>
+        <v>44320.5724380242</v>
       </c>
       <c r="O6" t="n">
-        <v>16123.38733356994</v>
+        <v>44320.5724380242</v>
       </c>
       <c r="P6" t="n">
-        <v>16123.38733356995</v>
+        <v>21190.59543108763</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="F3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="G3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="H3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="I3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="J3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="K3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="L3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="M3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="N3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="O3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="P3" t="n">
-        <v>1.932225066317924</v>
+        <v>311.8256880355916</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.932225066317924</v>
+        <v>271.6707258158669</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>40.15496221972467</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235878</v>
       </c>
       <c r="I11" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L11" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M11" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N11" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O11" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851583</v>
       </c>
       <c r="P11" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S11" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962544</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M12" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N12" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196052</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P13" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.02227959819589</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147812</v>
       </c>
       <c r="T13" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H14" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235878</v>
       </c>
       <c r="I14" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L14" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M14" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N14" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O14" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851583</v>
       </c>
       <c r="P14" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R14" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S14" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962544</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M15" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N15" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196052</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P16" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.02227959819589</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147812</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I17" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L17" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M17" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N17" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O17" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P17" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S17" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L18" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M18" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N18" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P19" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S19" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I20" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L20" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M20" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N20" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O20" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P20" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S20" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L21" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M21" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N21" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S21" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P22" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S22" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I23" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L23" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M23" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N23" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O23" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P23" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R23" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S23" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H24" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M24" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N24" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P25" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S25" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I26" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L26" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M26" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N26" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O26" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P26" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R26" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S26" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L27" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M27" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N27" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O27" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H28" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O28" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P28" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S28" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T28" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I29" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L29" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M29" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N29" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O29" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P29" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R29" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S29" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H30" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6711200968549719</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M30" t="n">
-        <v>1.053062661143269</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N30" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O30" t="n">
-        <v>0.9888435204957399</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.5305233804728007</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S30" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0002734280754223479</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H31" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P31" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S31" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T31" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I32" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L32" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M32" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N32" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O32" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P32" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R32" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S32" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H33" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M33" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N33" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O33" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S33" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H34" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P34" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S34" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T34" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H35" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I35" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L35" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M35" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N35" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O35" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P35" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R35" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S35" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H36" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L36" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M36" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N36" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O36" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S36" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H37" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P37" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S37" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T37" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H38" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I38" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L38" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M38" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N38" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O38" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P38" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R38" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S38" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L39" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M39" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N39" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O39" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M40" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P40" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S40" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T40" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07955135662483791</v>
+        <v>11.18491586235877</v>
       </c>
       <c r="I41" t="n">
-        <v>0.299465756258178</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9880855247422659</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L41" t="n">
-        <v>1.225807465941571</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M41" t="n">
-        <v>1.363946993672752</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N41" t="n">
-        <v>1.386017081993057</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O41" t="n">
-        <v>1.308776627708841</v>
+        <v>184.0139135851584</v>
       </c>
       <c r="P41" t="n">
-        <v>1.117010572132062</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.8388284206244812</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R41" t="n">
-        <v>0.4879402324506263</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S41" t="n">
-        <v>0.177007351552642</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03400327729771541</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.08737148970962545</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H42" t="n">
-        <v>0.04013924147200065</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1430940261376953</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3926609448448529</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6711200968549718</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L42" t="n">
-        <v>0.9024037915855551</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M42" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N42" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O42" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7936341031825451</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.5305233804728006</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2580431890452504</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07719785996090946</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.355333934196053</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H43" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1047836150717983</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2463428580451556</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4048169893039846</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5180263726977595</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5461861773527862</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5331990908414693</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4924956611657555</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P43" t="n">
-        <v>0.421415119381863</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2917659850140065</v>
+        <v>41.0222795981959</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1566686094755483</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S43" t="n">
-        <v>0.06072254839559768</v>
+        <v>8.537586580147813</v>
       </c>
       <c r="T43" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.00776773896007205</v>
+        <v>1.253570605168206</v>
       </c>
       <c r="H44" t="n">
-        <v>0.07955135662483791</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I44" t="n">
-        <v>0.299465756258178</v>
+        <v>48.32828075574732</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>106.3952381503951</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9880855247422659</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L44" t="n">
-        <v>1.225807465941571</v>
+        <v>197.8228432750819</v>
       </c>
       <c r="M44" t="n">
-        <v>1.363946993672752</v>
+        <v>220.116029524742</v>
       </c>
       <c r="N44" t="n">
-        <v>1.386017081993057</v>
+        <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>1.308776627708841</v>
+        <v>211.2125443015348</v>
       </c>
       <c r="P44" t="n">
-        <v>1.117010572132062</v>
+        <v>180.2650199864447</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8388284206244812</v>
+        <v>135.3715226888582</v>
       </c>
       <c r="R44" t="n">
-        <v>0.4879402324506263</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S44" t="n">
-        <v>0.177007351552642</v>
+        <v>28.56574016527053</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03400327729771541</v>
+        <v>5.487505324123826</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0006214191168057639</v>
+        <v>0.1002856484134565</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.004156106746419685</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H45" t="n">
-        <v>0.04013924147200065</v>
+        <v>6.477737406173327</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1430940261376953</v>
+        <v>23.0927514252773</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3926609448448529</v>
+        <v>63.36827496202527</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6711200968549718</v>
+        <v>108.3064750604375</v>
       </c>
       <c r="L45" t="n">
-        <v>0.9024037915855551</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M45" t="n">
-        <v>1.053062661143268</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N45" t="n">
-        <v>1.080934096297987</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O45" t="n">
-        <v>0.9888435204957398</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7936341031825451</v>
+        <v>128.0779887329584</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5305233804728006</v>
+        <v>85.61674362818734</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2580431890452504</v>
+        <v>41.64343811162109</v>
       </c>
       <c r="S45" t="n">
-        <v>0.07719785996090946</v>
+        <v>12.45831876255405</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01675202675420916</v>
+        <v>2.703469880233099</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0002734280754223478</v>
+        <v>0.04412627660881015</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.003484340283524125</v>
+        <v>0.5623086177690995</v>
       </c>
       <c r="H46" t="n">
-        <v>0.03097895270260542</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1047836150717983</v>
+        <v>16.91015370527438</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2463428580451556</v>
+        <v>39.75521927627533</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4048169893039846</v>
+        <v>65.33003759171899</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5180263726977595</v>
+        <v>83.59995577268958</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5461861773527862</v>
+        <v>88.14443178356892</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5331990908414693</v>
+        <v>86.04855420824779</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4924956611657555</v>
+        <v>79.47976717339965</v>
       </c>
       <c r="P46" t="n">
-        <v>0.421415119381863</v>
+        <v>68.00867137090997</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2917659850140065</v>
+        <v>47.08567889337432</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1566686094755483</v>
+        <v>25.28344021350878</v>
       </c>
       <c r="S46" t="n">
-        <v>0.06072254839559768</v>
+        <v>9.799505638757848</v>
       </c>
       <c r="T46" t="n">
-        <v>0.0148876357568758</v>
+        <v>2.402591366831606</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0001900549245558616</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_8_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59699.38967739208</v>
+        <v>-63925.26257195515</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10476461.76884806</v>
+        <v>10680291.96747503</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21992138.85861845</v>
+        <v>21963136.4270266</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4098490.269183655</v>
+        <v>4099115.989296833</v>
       </c>
     </row>
     <row r="11">
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K11" t="n">
-        <v>75.6628405919713</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L11" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M11" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N11" t="n">
-        <v>28.8038202865167</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O11" t="n">
-        <v>40.33184255098621</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P11" t="n">
-        <v>68.40055292880922</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q11" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8768,13 +8768,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>68.45858123773974</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K12" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L12" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>19.04014099716808</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q12" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8850,22 +8850,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L13" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M13" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N13" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O13" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P13" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K14" t="n">
-        <v>75.6628405919713</v>
+        <v>66.6704651595997</v>
       </c>
       <c r="L14" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M14" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N14" t="n">
-        <v>28.8038202865167</v>
+        <v>16.18994664413864</v>
       </c>
       <c r="O14" t="n">
-        <v>40.33184255098621</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P14" t="n">
-        <v>68.40055292880922</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,13 +9005,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>68.45858123773974</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K15" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317469</v>
       </c>
       <c r="L15" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>19.04014099716808</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q15" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9087,22 +9087,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L16" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M16" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N16" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O16" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962975</v>
       </c>
       <c r="P16" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810425</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K17" t="n">
-        <v>75.6628405919713</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L17" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M17" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N17" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O17" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P17" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9242,13 +9242,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K18" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L18" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q18" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9324,22 +9324,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L19" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M19" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N19" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O19" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P19" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K20" t="n">
-        <v>75.6628405919713</v>
+        <v>66.6704651595997</v>
       </c>
       <c r="L20" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M20" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N20" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413864</v>
       </c>
       <c r="O20" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P20" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9479,13 +9479,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K21" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317469</v>
       </c>
       <c r="L21" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q21" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9561,22 +9561,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L22" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M22" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N22" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O22" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962975</v>
       </c>
       <c r="P22" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810425</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K23" t="n">
-        <v>75.6628405919713</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L23" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M23" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N23" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O23" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P23" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9716,13 +9716,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K24" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L24" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q24" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9798,22 +9798,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L25" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M25" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N25" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O25" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P25" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K26" t="n">
-        <v>75.6628405919713</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L26" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M26" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N26" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O26" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P26" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K27" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L27" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q27" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10035,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L28" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M28" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N28" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O28" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P28" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K29" t="n">
-        <v>75.6628405919713</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L29" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M29" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N29" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O29" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P29" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q29" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10190,13 +10190,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K30" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L30" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10272,22 +10272,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L31" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M31" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N31" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O31" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P31" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K32" t="n">
-        <v>75.6628405919713</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L32" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M32" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N32" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O32" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P32" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10427,13 +10427,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K33" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L33" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10509,22 +10509,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L34" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M34" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N34" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O34" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P34" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K35" t="n">
-        <v>75.6628405919713</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L35" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M35" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N35" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O35" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P35" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10664,13 +10664,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K36" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L36" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q36" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10746,22 +10746,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L37" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M37" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N37" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O37" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P37" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K38" t="n">
-        <v>75.6628405919713</v>
+        <v>66.6704651595997</v>
       </c>
       <c r="L38" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M38" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N38" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413864</v>
       </c>
       <c r="O38" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P38" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10901,13 +10901,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K39" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317469</v>
       </c>
       <c r="L39" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q39" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10983,22 +10983,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L40" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M40" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N40" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O40" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962975</v>
       </c>
       <c r="P40" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810425</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>83.82543222923999</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K41" t="n">
-        <v>75.6628405919713</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L41" t="n">
-        <v>57.5238000663409</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M41" t="n">
-        <v>32.81671374064987</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N41" t="n">
-        <v>28.80382028651667</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O41" t="n">
-        <v>40.33184255098618</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P41" t="n">
-        <v>68.40055292880919</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.80882313533421</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11138,13 +11138,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>68.45858123773975</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K42" t="n">
-        <v>40.03595854374745</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L42" t="n">
-        <v>8.212602535240634</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.04014099716809</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q42" t="n">
-        <v>61.89067497778616</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11220,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>68.87068284861988</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L43" t="n">
-        <v>58.678083144819</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M43" t="n">
-        <v>58.65889631214456</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N43" t="n">
-        <v>49.52564638379106</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O43" t="n">
-        <v>65.75026523669263</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P43" t="n">
-        <v>75.03386400932396</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>70.12451876312399</v>
+        <v>77.82547842006969</v>
       </c>
       <c r="K44" t="n">
-        <v>55.12872290169068</v>
+        <v>66.67046515959973</v>
       </c>
       <c r="L44" t="n">
-        <v>32.04941132065568</v>
+        <v>46.36796318225549</v>
       </c>
       <c r="M44" t="n">
-        <v>4.471547871848941</v>
+        <v>20.40369570745969</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>16.18994664413867</v>
       </c>
       <c r="O44" t="n">
-        <v>13.13321183460977</v>
+        <v>28.4209193578335</v>
       </c>
       <c r="P44" t="n">
-        <v>45.18715087494314</v>
+        <v>58.23485555240069</v>
       </c>
       <c r="Q44" t="n">
-        <v>81.37652493873003</v>
+        <v>91.1748077665065</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,10 +11375,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>60.29841103797475</v>
+        <v>64.88504985279644</v>
       </c>
       <c r="K45" t="n">
-        <v>26.08892793956251</v>
+        <v>33.92822422317468</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.547058496013619</v>
+        <v>11.81743037845671</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.86548610568364</v>
+        <v>57.06248420542693</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11457,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>60.45788912455299</v>
+        <v>65.18652165197315</v>
       </c>
       <c r="L46" t="n">
-        <v>47.91260360151773</v>
+        <v>53.96362522541675</v>
       </c>
       <c r="M46" t="n">
-        <v>47.308207565346</v>
+        <v>53.68816145191141</v>
       </c>
       <c r="N46" t="n">
-        <v>38.44485164535457</v>
+        <v>44.67310448839555</v>
       </c>
       <c r="O46" t="n">
-        <v>55.51535781714706</v>
+        <v>61.26815738962976</v>
       </c>
       <c r="P46" t="n">
-        <v>66.27613257700894</v>
+        <v>71.19864643810423</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -23272,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H11" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I11" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S11" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T11" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23351,13 +23351,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H12" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I12" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S12" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T12" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23430,16 +23430,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H13" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J13" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.73842027765228</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T13" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23509,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H14" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I14" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S14" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T14" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23588,13 +23588,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H15" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I15" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510176</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612097</v>
       </c>
       <c r="S15" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T15" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23667,16 +23667,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H16" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J16" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.73842027765228</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T16" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23746,13 +23746,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H17" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I17" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S17" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T17" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23825,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H18" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I18" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S18" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T18" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23904,16 +23904,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H19" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I19" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J19" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T19" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23983,13 +23983,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H20" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I20" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S20" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T20" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24062,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H21" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I21" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510176</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612097</v>
       </c>
       <c r="S21" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T21" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24141,16 +24141,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H22" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J22" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T22" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24220,13 +24220,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H23" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I23" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S23" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T23" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24299,13 +24299,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H24" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I24" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S24" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T24" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24378,16 +24378,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H25" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J25" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T25" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24457,13 +24457,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H26" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I26" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S26" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T26" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24536,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H27" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I27" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S27" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T27" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24615,16 +24615,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H28" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J28" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T28" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24694,13 +24694,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H29" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I29" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S29" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T29" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24773,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H30" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I30" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S30" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T30" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24852,16 +24852,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H31" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J31" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T31" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24931,13 +24931,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H32" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I32" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S32" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T32" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25010,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H33" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I33" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S33" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T33" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25089,16 +25089,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H34" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J34" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T34" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25168,13 +25168,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H35" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I35" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S35" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T35" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25247,13 +25247,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H36" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I36" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S36" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T36" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25326,16 +25326,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H37" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I37" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J37" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S37" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T37" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25405,13 +25405,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H38" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I38" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S38" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T38" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25484,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H39" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I39" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510176</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612097</v>
       </c>
       <c r="S39" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T39" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25563,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H40" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J40" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T40" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25642,13 +25642,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.7626217824606</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H41" t="n">
-        <v>326.9589875257946</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I41" t="n">
-        <v>163.1194409052448</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.24645594497376</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S41" t="n">
-        <v>180.9777289515631</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T41" t="n">
-        <v>218.1842584938718</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25721,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H42" t="n">
-        <v>104.8189406330145</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I42" t="n">
-        <v>66.38453216684378</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>58.41412320779487</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S42" t="n">
-        <v>158.1075995298878</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T42" t="n">
-        <v>196.0271979740726</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25800,16 +25800,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3996908999483</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H43" t="n">
-        <v>157.278433158951</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0259769449628</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J43" t="n">
-        <v>54.20305419548392</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.73842027765227</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3635507864171</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8198203812747</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T43" t="n">
-        <v>226.2392653171887</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25879,13 +25879,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.6011947986627</v>
+        <v>413.6919290911495</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3057734279745</v>
+        <v>326.2350060009042</v>
       </c>
       <c r="I44" t="n">
-        <v>156.8960271123767</v>
+        <v>160.3940609234714</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.10621817397967</v>
+        <v>68.80580617439929</v>
       </c>
       <c r="S44" t="n">
-        <v>177.2992115582687</v>
+        <v>179.3668192483101</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4776118722965</v>
+        <v>217.8748012376572</v>
       </c>
       <c r="U44" t="n">
-        <v>251.377477928131</v>
+        <v>251.3847366715299</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3524908005884</v>
+        <v>135.4010379269883</v>
       </c>
       <c r="H45" t="n">
-        <v>103.9847781159594</v>
+        <v>104.4536411525054</v>
       </c>
       <c r="I45" t="n">
-        <v>63.41079204019437</v>
+        <v>65.08226108510175</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.05154164947012</v>
+        <v>56.06572200612096</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5032951430903</v>
+        <v>157.4050367233684</v>
       </c>
       <c r="T45" t="n">
-        <v>195.6790620280356</v>
+        <v>195.8747410155859</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6130507905924</v>
+        <v>224.6162446804871</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26037,16 +26037,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.327280312339</v>
+        <v>167.3679805923089</v>
       </c>
       <c r="H46" t="n">
-        <v>156.634637207297</v>
+        <v>156.9964996964846</v>
       </c>
       <c r="I46" t="n">
-        <v>136.8483930921292</v>
+        <v>138.0723615115898</v>
       </c>
       <c r="J46" t="n">
-        <v>49.08362565150361</v>
+        <v>51.9611354453805</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.67502098247385</v>
+        <v>36.08311442614108</v>
       </c>
       <c r="R46" t="n">
-        <v>148.1077074562735</v>
+        <v>149.9377400447414</v>
       </c>
       <c r="S46" t="n">
-        <v>212.5579013226647</v>
+        <v>213.2671962017777</v>
       </c>
       <c r="T46" t="n">
-        <v>225.929874624676</v>
+        <v>226.1037758209114</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0215990119132</v>
+        <v>286.0238190271842</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354096.469791294</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354396.053583339</v>
+        <v>354188.5200030527</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58354.60936318347</v>
+        <v>58354.60936318345</v>
       </c>
       <c r="C2" t="n">
         <v>58354.60936318347</v>
@@ -26322,40 +26322,40 @@
         <v>58354.60936318347</v>
       </c>
       <c r="E2" t="n">
-        <v>63539.0586367592</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="F2" t="n">
-        <v>63539.0586367592</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="G2" t="n">
-        <v>63539.05863675919</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="H2" t="n">
-        <v>63539.0586367592</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="I2" t="n">
-        <v>63539.05863675919</v>
+        <v>63867.39378951154</v>
       </c>
       <c r="J2" t="n">
-        <v>63539.0586367592</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="K2" t="n">
-        <v>63539.05863675921</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="L2" t="n">
-        <v>63539.0586367592</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="M2" t="n">
-        <v>63539.0586367592</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="N2" t="n">
-        <v>63539.0586367592</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="O2" t="n">
-        <v>63539.0586367592</v>
+        <v>63867.39378951152</v>
       </c>
       <c r="P2" t="n">
-        <v>64288.81299467909</v>
+        <v>63867.39378951152</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>218261.0761326449</v>
+        <v>232388.7628016624</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>26726.17913435546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42439.71590049705</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="C4" t="n">
-        <v>42439.71590049705</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="D4" t="n">
-        <v>42439.71590049705</v>
+        <v>42439.71590049706</v>
       </c>
       <c r="E4" t="n">
-        <v>13296.0643759491</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="F4" t="n">
-        <v>13296.0643759491</v>
+        <v>11627.0442229452</v>
       </c>
       <c r="G4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="H4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.0442229452</v>
       </c>
       <c r="I4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="J4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="K4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="L4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="M4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="N4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.0442229452</v>
       </c>
       <c r="O4" t="n">
-        <v>13296.06437594909</v>
+        <v>11627.04422294521</v>
       </c>
       <c r="P4" t="n">
-        <v>9574.238430060112</v>
+        <v>11627.04422294521</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="F5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="G5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="H5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="I5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="J5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="K5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="L5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="M5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="N5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="O5" t="n">
-        <v>5922.421822785898</v>
+        <v>6305.770614593474</v>
       </c>
       <c r="P5" t="n">
-        <v>6797.799999175896</v>
+        <v>6305.770614593474</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17712.70653731358</v>
+        <v>-32755.72726512489</v>
       </c>
       <c r="C6" t="n">
-        <v>-17712.70653731358</v>
+        <v>-32755.72726512487</v>
       </c>
       <c r="D6" t="n">
-        <v>-17712.70653731358</v>
+        <v>-32755.72726512487</v>
       </c>
       <c r="E6" t="n">
-        <v>-173940.5036946207</v>
+        <v>-200996.0423569256</v>
       </c>
       <c r="F6" t="n">
-        <v>44320.57243802422</v>
+        <v>31392.72044473685</v>
       </c>
       <c r="G6" t="n">
-        <v>44320.5724380242</v>
+        <v>31392.72044473683</v>
       </c>
       <c r="H6" t="n">
-        <v>44320.57243802422</v>
+        <v>31392.72044473685</v>
       </c>
       <c r="I6" t="n">
-        <v>44320.5724380242</v>
+        <v>31392.72044473686</v>
       </c>
       <c r="J6" t="n">
-        <v>44320.5724380242</v>
+        <v>31392.72044473685</v>
       </c>
       <c r="K6" t="n">
-        <v>44320.57243802422</v>
+        <v>31392.72044473685</v>
       </c>
       <c r="L6" t="n">
-        <v>44320.5724380242</v>
+        <v>31392.72044473685</v>
       </c>
       <c r="M6" t="n">
-        <v>44320.5724380242</v>
+        <v>31392.72044473683</v>
       </c>
       <c r="N6" t="n">
-        <v>44320.5724380242</v>
+        <v>31392.72044473685</v>
       </c>
       <c r="O6" t="n">
-        <v>44320.5724380242</v>
+        <v>31392.72044473685</v>
       </c>
       <c r="P6" t="n">
-        <v>21190.59543108763</v>
+        <v>31392.72044473685</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="F3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="G3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="H3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="I3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="J3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="K3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="L3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="M3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="N3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="O3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="P3" t="n">
-        <v>311.8256880355916</v>
+        <v>289.2555327795172</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>271.6707258158669</v>
+        <v>289.2555327795172</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>40.15496221972467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H11" t="n">
-        <v>11.18491586235878</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I11" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J11" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K11" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L11" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M11" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N11" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O11" t="n">
-        <v>184.0139135851583</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P11" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q11" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R11" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S11" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T11" t="n">
-        <v>4.780858702548571</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08737148970962544</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H12" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I12" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J12" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K12" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L12" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M12" t="n">
         <v>138.5806830739679</v>
@@ -31858,22 +31858,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R12" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S12" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T12" t="n">
-        <v>2.355333934196052</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H13" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I13" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J13" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K13" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L13" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M13" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N13" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O13" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P13" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.02227959819589</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R13" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S13" t="n">
-        <v>8.537586580147812</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T13" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H14" t="n">
-        <v>11.18491586235878</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I14" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J14" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K14" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L14" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M14" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N14" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O14" t="n">
-        <v>184.0139135851583</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P14" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q14" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R14" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S14" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T14" t="n">
-        <v>4.780858702548571</v>
+        <v>5.09031595876316</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08737148970962544</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H15" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I15" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J15" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K15" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L15" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M15" t="n">
         <v>138.5806830739679</v>
@@ -32095,22 +32095,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P15" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R15" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S15" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T15" t="n">
-        <v>2.355333934196052</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H16" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I16" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J16" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K16" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L16" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M16" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N16" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O16" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091696</v>
       </c>
       <c r="P16" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981466</v>
       </c>
       <c r="Q16" t="n">
-        <v>41.02227959819589</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R16" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504085</v>
       </c>
       <c r="S16" t="n">
-        <v>8.537586580147812</v>
+        <v>9.090210759644821</v>
       </c>
       <c r="T16" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H17" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I17" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J17" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K17" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L17" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M17" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N17" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O17" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P17" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q17" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R17" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S17" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T17" t="n">
-        <v>4.780858702548571</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H18" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I18" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J18" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K18" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L18" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M18" t="n">
         <v>138.5806830739679</v>
@@ -32332,22 +32332,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P18" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R18" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S18" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T18" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H19" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I19" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J19" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K19" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L19" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M19" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N19" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O19" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P19" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q19" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R19" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S19" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T19" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H20" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I20" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J20" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K20" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L20" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M20" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N20" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O20" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P20" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q20" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R20" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S20" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T20" t="n">
-        <v>4.780858702548571</v>
+        <v>5.09031595876316</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H21" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I21" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J21" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K21" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L21" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M21" t="n">
         <v>138.5806830739679</v>
@@ -32569,22 +32569,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P21" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R21" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S21" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T21" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H22" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I22" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J22" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K22" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L22" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M22" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N22" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O22" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091696</v>
       </c>
       <c r="P22" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981466</v>
       </c>
       <c r="Q22" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R22" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504085</v>
       </c>
       <c r="S22" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644821</v>
       </c>
       <c r="T22" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H23" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I23" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J23" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K23" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L23" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M23" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N23" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O23" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P23" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q23" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R23" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S23" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T23" t="n">
-        <v>4.780858702548571</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U23" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H24" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I24" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J24" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K24" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L24" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M24" t="n">
         <v>138.5806830739679</v>
@@ -32806,22 +32806,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P24" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q24" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R24" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S24" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T24" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H25" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I25" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J25" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K25" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L25" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M25" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N25" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O25" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P25" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q25" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R25" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S25" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T25" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H26" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I26" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J26" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K26" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L26" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M26" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N26" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O26" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P26" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q26" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R26" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S26" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T26" t="n">
-        <v>4.780858702548571</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U26" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H27" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I27" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J27" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K27" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L27" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M27" t="n">
         <v>138.5806830739679</v>
@@ -33043,22 +33043,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P27" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q27" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R27" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S27" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T27" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H28" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I28" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J28" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K28" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L28" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M28" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N28" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O28" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P28" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R28" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S28" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T28" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H29" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I29" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J29" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K29" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L29" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M29" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N29" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O29" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P29" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q29" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R29" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S29" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T29" t="n">
-        <v>4.780858702548571</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U29" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H30" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I30" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J30" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K30" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L30" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M30" t="n">
         <v>138.5806830739679</v>
@@ -33280,22 +33280,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R30" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S30" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T30" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H31" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I31" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J31" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K31" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L31" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M31" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N31" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O31" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P31" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R31" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S31" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T31" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H32" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I32" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J32" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K32" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L32" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M32" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N32" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O32" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P32" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q32" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R32" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S32" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T32" t="n">
-        <v>4.780858702548571</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U32" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H33" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I33" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J33" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K33" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L33" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M33" t="n">
         <v>138.5806830739679</v>
@@ -33517,22 +33517,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P33" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R33" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S33" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T33" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H34" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I34" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J34" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K34" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L34" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M34" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N34" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O34" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P34" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q34" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R34" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S34" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T34" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H35" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I35" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J35" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K35" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L35" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M35" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N35" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O35" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P35" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q35" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R35" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S35" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T35" t="n">
-        <v>4.780858702548571</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U35" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H36" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I36" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J36" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K36" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L36" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M36" t="n">
         <v>138.5806830739679</v>
@@ -33754,22 +33754,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P36" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q36" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R36" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S36" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T36" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H37" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I37" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J37" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K37" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L37" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M37" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N37" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O37" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P37" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q37" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R37" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S37" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T37" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H38" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I38" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J38" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K38" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L38" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M38" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N38" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O38" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P38" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q38" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R38" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S38" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T38" t="n">
-        <v>4.780858702548571</v>
+        <v>5.09031595876316</v>
       </c>
       <c r="U38" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H39" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I39" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J39" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K39" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L39" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M39" t="n">
         <v>138.5806830739679</v>
@@ -33991,22 +33991,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P39" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R39" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S39" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T39" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H40" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I40" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J40" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K40" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L40" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M40" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N40" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O40" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091696</v>
       </c>
       <c r="P40" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981466</v>
       </c>
       <c r="Q40" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R40" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504085</v>
       </c>
       <c r="S40" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644821</v>
       </c>
       <c r="T40" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.092143621370318</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H41" t="n">
-        <v>11.18491586235877</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I41" t="n">
-        <v>42.10486696287924</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J41" t="n">
-        <v>92.69432468427914</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K41" t="n">
-        <v>138.9247641768847</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L41" t="n">
-        <v>172.3484545293967</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M41" t="n">
-        <v>191.770863655941</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N41" t="n">
-        <v>194.8739167201595</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O41" t="n">
-        <v>184.0139135851584</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P41" t="n">
-        <v>157.0516179325786</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q41" t="n">
-        <v>117.939224492254</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R41" t="n">
-        <v>68.60436675590331</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S41" t="n">
-        <v>24.88722277197616</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T41" t="n">
-        <v>4.780858702548571</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U41" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H42" t="n">
-        <v>5.643574889118293</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I42" t="n">
-        <v>20.11901129862788</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J42" t="n">
-        <v>55.20810476226028</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K42" t="n">
-        <v>94.35944445625256</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L42" t="n">
-        <v>126.8779177501367</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M42" t="n">
         <v>138.5806830739679</v>
@@ -34228,22 +34228,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P42" t="n">
-        <v>111.5849062318039</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.59155475608482</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R42" t="n">
-        <v>36.28085655329635</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S42" t="n">
-        <v>10.85401437575656</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T42" t="n">
-        <v>2.355333934196053</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H43" t="n">
-        <v>4.355638849965868</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I43" t="n">
-        <v>14.73256985244078</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J43" t="n">
-        <v>34.63579073229502</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K43" t="n">
-        <v>56.9172438676521</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L43" t="n">
-        <v>72.83447622938832</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M43" t="n">
-        <v>76.79374303677035</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N43" t="n">
-        <v>74.96775946981131</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O43" t="n">
-        <v>69.24485975385409</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P43" t="n">
-        <v>59.25093993859494</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q43" t="n">
-        <v>41.0222795981959</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R43" t="n">
-        <v>22.0275968833652</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S43" t="n">
-        <v>8.537586580147813</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T43" t="n">
-        <v>2.093200674318973</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.253570605168206</v>
+        <v>1.162836312681475</v>
       </c>
       <c r="H44" t="n">
-        <v>12.8381299601789</v>
+        <v>11.90889738724916</v>
       </c>
       <c r="I44" t="n">
-        <v>48.32828075574732</v>
+        <v>44.83024694465261</v>
       </c>
       <c r="J44" t="n">
-        <v>106.3952381503951</v>
+        <v>98.69427849344945</v>
       </c>
       <c r="K44" t="n">
-        <v>159.4588818671654</v>
+        <v>147.9171396092563</v>
       </c>
       <c r="L44" t="n">
-        <v>197.8228432750819</v>
+        <v>183.5042914134821</v>
       </c>
       <c r="M44" t="n">
-        <v>220.116029524742</v>
+        <v>204.1838816891312</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>207.4877903625375</v>
       </c>
       <c r="O44" t="n">
-        <v>211.2125443015348</v>
+        <v>195.9248367783111</v>
       </c>
       <c r="P44" t="n">
-        <v>180.2650199864447</v>
+        <v>167.2173153089871</v>
       </c>
       <c r="Q44" t="n">
-        <v>135.3715226888582</v>
+        <v>125.5732398610817</v>
       </c>
       <c r="R44" t="n">
-        <v>78.7446045268974</v>
+        <v>73.04501652647778</v>
       </c>
       <c r="S44" t="n">
-        <v>28.56574016527053</v>
+        <v>26.49813247522914</v>
       </c>
       <c r="T44" t="n">
-        <v>5.487505324123826</v>
+        <v>5.090315958763161</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1002856484134565</v>
+        <v>0.093026905014518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.670719404453914</v>
+        <v>0.6221722780540558</v>
       </c>
       <c r="H45" t="n">
-        <v>6.477737406173327</v>
+        <v>6.00887436962733</v>
       </c>
       <c r="I45" t="n">
-        <v>23.0927514252773</v>
+        <v>21.42128238036991</v>
       </c>
       <c r="J45" t="n">
-        <v>63.36827496202527</v>
+        <v>58.78163614720359</v>
       </c>
       <c r="K45" t="n">
-        <v>108.3064750604375</v>
+        <v>100.4671787768253</v>
       </c>
       <c r="L45" t="n">
         <v>135.0905202853774</v>
@@ -34465,22 +34465,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P45" t="n">
-        <v>128.0779887329584</v>
+        <v>118.8076168505153</v>
       </c>
       <c r="Q45" t="n">
-        <v>85.61674362818734</v>
+        <v>79.41974552844405</v>
       </c>
       <c r="R45" t="n">
-        <v>41.64343811162109</v>
+        <v>38.62925775497025</v>
       </c>
       <c r="S45" t="n">
-        <v>12.45831876255405</v>
+        <v>11.55657718227599</v>
       </c>
       <c r="T45" t="n">
-        <v>2.703469880233099</v>
+        <v>2.507790892682794</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04412627660881015</v>
+        <v>0.04093238671408263</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5623086177690995</v>
+        <v>0.5216083377991293</v>
       </c>
       <c r="H46" t="n">
-        <v>4.999434801619815</v>
+        <v>4.637572312432262</v>
       </c>
       <c r="I46" t="n">
-        <v>16.91015370527438</v>
+        <v>15.68618528581382</v>
       </c>
       <c r="J46" t="n">
-        <v>39.75521927627533</v>
+        <v>36.87770948239844</v>
       </c>
       <c r="K46" t="n">
-        <v>65.33003759171899</v>
+        <v>60.60140506429882</v>
       </c>
       <c r="L46" t="n">
-        <v>83.59995577268958</v>
+        <v>77.54893414879056</v>
       </c>
       <c r="M46" t="n">
-        <v>88.14443178356892</v>
+        <v>81.7644778970035</v>
       </c>
       <c r="N46" t="n">
-        <v>86.04855420824779</v>
+        <v>79.82030136520682</v>
       </c>
       <c r="O46" t="n">
-        <v>79.47976717339965</v>
+        <v>73.72696760091695</v>
       </c>
       <c r="P46" t="n">
-        <v>68.00867137090997</v>
+        <v>63.08615750981467</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.08567889337432</v>
+        <v>43.6775854497071</v>
       </c>
       <c r="R46" t="n">
-        <v>25.28344021350878</v>
+        <v>23.45340762504084</v>
       </c>
       <c r="S46" t="n">
-        <v>9.799505638757848</v>
+        <v>9.090210759644823</v>
       </c>
       <c r="T46" t="n">
-        <v>2.402591366831606</v>
+        <v>2.228690170596279</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03067137915104182</v>
+        <v>0.02845136387995254</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
